--- a/Covid19/data_parsed.xlsx
+++ b/Covid19/data_parsed.xlsx
@@ -361,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H185"/>
+  <dimension ref="A1:H187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,26 +411,26 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>654</v>
+        <v>925</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>352</v>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="E2" t="n">
-        <v>44</v>
+        <v>1806</v>
       </c>
       <c r="F2" t="n">
-        <v>213</v>
+        <v>8531</v>
       </c>
       <c r="G2" t="n">
-        <v>6724</v>
+        <v>195298</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>כפר חב"ד</t>
+          <t>בני ברק</t>
         </is>
       </c>
     </row>
@@ -439,26 +439,26 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>639</v>
+        <v>683</v>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F3" t="n">
-        <v>281</v>
+        <v>408</v>
       </c>
       <c r="G3" t="n">
-        <v>8602</v>
+        <v>5713</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>כוכב יעקב</t>
+          <t>קרית יערים</t>
         </is>
       </c>
     </row>
@@ -467,26 +467,26 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>599</v>
+        <v>654</v>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E4" t="n">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F4" t="n">
-        <v>632</v>
+        <v>213</v>
       </c>
       <c r="G4" t="n">
-        <v>10676</v>
+        <v>6724</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>אפרת</t>
+          <t>כפר חב"ד</t>
         </is>
       </c>
     </row>
@@ -495,26 +495,26 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>518</v>
+        <v>639</v>
       </c>
       <c r="C5" t="n">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>242</v>
+        <v>55</v>
       </c>
       <c r="F5" t="n">
-        <v>1785</v>
+        <v>281</v>
       </c>
       <c r="G5" t="n">
-        <v>46760</v>
+        <v>8602</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>אלעד</t>
+          <t>כוכב יעקב</t>
         </is>
       </c>
     </row>
@@ -523,26 +523,26 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>372</v>
+        <v>599</v>
       </c>
       <c r="C6" t="n">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6" t="n">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F6" t="n">
-        <v>848</v>
+        <v>632</v>
       </c>
       <c r="G6" t="n">
-        <v>26058</v>
+        <v>10676</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>מגדל העמק</t>
+          <t>אפרת</t>
         </is>
       </c>
     </row>
@@ -551,26 +551,26 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>324</v>
+        <v>518</v>
       </c>
       <c r="C7" t="n">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E7" t="n">
-        <v>113</v>
+        <v>242</v>
       </c>
       <c r="F7" t="n">
-        <v>1256</v>
+        <v>1785</v>
       </c>
       <c r="G7" t="n">
-        <v>34843</v>
+        <v>46760</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>אור יהודה</t>
+          <t>אלעד</t>
         </is>
       </c>
     </row>
@@ -579,26 +579,26 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>293</v>
+        <v>372</v>
       </c>
       <c r="C8" t="n">
-        <v>161</v>
+        <v>53</v>
       </c>
       <c r="D8" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E8" t="n">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="F8" t="n">
-        <v>1470</v>
+        <v>848</v>
       </c>
       <c r="G8" t="n">
-        <v>44353</v>
+        <v>26058</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>טבריה</t>
+          <t>מגדל העמק</t>
         </is>
       </c>
     </row>
@@ -607,26 +607,26 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>279</v>
+        <v>324</v>
       </c>
       <c r="C9" t="n">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>206</v>
+        <v>113</v>
       </c>
       <c r="F9" t="n">
-        <v>1215</v>
+        <v>1256</v>
       </c>
       <c r="G9" t="n">
-        <v>73808</v>
+        <v>34843</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>מודיעין עילית</t>
+          <t>אור יהודה</t>
         </is>
       </c>
     </row>
@@ -635,26 +635,26 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>248</v>
+        <v>293</v>
       </c>
       <c r="C10" t="n">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E10" t="n">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="F10" t="n">
-        <v>917</v>
+        <v>1470</v>
       </c>
       <c r="G10" t="n">
-        <v>59240</v>
+        <v>44353</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ביתר עילית</t>
+          <t>טבריה</t>
         </is>
       </c>
     </row>
@@ -663,26 +663,26 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="C11" t="n">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>29</v>
+        <v>206</v>
       </c>
       <c r="F11" t="n">
-        <v>213</v>
+        <v>1215</v>
       </c>
       <c r="G11" t="n">
-        <v>11841</v>
+        <v>73808</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>רכסים</t>
+          <t>מודיעין עילית</t>
         </is>
       </c>
     </row>
@@ -691,26 +691,26 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="C12" t="n">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="F12" t="n">
-        <v>354</v>
+        <v>917</v>
       </c>
       <c r="G12" t="n">
-        <v>11819</v>
+        <v>59240</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>אזור</t>
+          <t>ביתר עילית</t>
         </is>
       </c>
     </row>
@@ -719,26 +719,26 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="C13" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="F13" t="n">
-        <v>922</v>
+        <v>213</v>
       </c>
       <c r="G13" t="n">
-        <v>29104</v>
+        <v>11841</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>יהוד</t>
+          <t>רכסים</t>
         </is>
       </c>
     </row>
@@ -747,26 +747,26 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="C14" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F14" t="n">
-        <v>498</v>
+        <v>354</v>
       </c>
       <c r="G14" t="n">
-        <v>10414</v>
+        <v>11819</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>דבוריה</t>
+          <t>אזור</t>
         </is>
       </c>
     </row>
@@ -775,26 +775,26 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C15" t="n">
-        <v>915</v>
+        <v>37</v>
       </c>
       <c r="D15" t="n">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="E15" t="n">
-        <v>1959</v>
+        <v>65</v>
       </c>
       <c r="F15" t="n">
-        <v>18312</v>
+        <v>922</v>
       </c>
       <c r="G15" t="n">
-        <v>914559</v>
+        <v>29104</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>ירושלים</t>
+          <t>יהוד</t>
         </is>
       </c>
     </row>
@@ -803,26 +803,26 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F16" t="n">
-        <v>692</v>
+        <v>498</v>
       </c>
       <c r="G16" t="n">
-        <v>14732</v>
+        <v>10414</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>ג'סר א-זרקא</t>
+          <t>דבוריה</t>
         </is>
       </c>
     </row>
@@ -831,26 +831,26 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="C17" t="n">
-        <v>24</v>
+        <v>915</v>
       </c>
       <c r="D17" t="n">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="E17" t="n">
-        <v>46</v>
+        <v>1959</v>
       </c>
       <c r="F17" t="n">
-        <v>423</v>
+        <v>18312</v>
       </c>
       <c r="G17" t="n">
-        <v>23691</v>
+        <v>914559</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>קרית מלאכי</t>
+          <t>ירושלים</t>
         </is>
       </c>
     </row>
@@ -859,26 +859,26 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="C18" t="n">
+        <v>7</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="n">
         <v>31</v>
       </c>
-      <c r="D18" t="n">
-        <v>8</v>
-      </c>
-      <c r="E18" t="n">
-        <v>37</v>
-      </c>
       <c r="F18" t="n">
-        <v>665</v>
+        <v>692</v>
       </c>
       <c r="G18" t="n">
-        <v>20041</v>
+        <v>14732</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>שוהם</t>
+          <t>ג'סר א-זרקא</t>
         </is>
       </c>
     </row>
@@ -887,26 +887,26 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E19" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F19" t="n">
-        <v>291</v>
+        <v>423</v>
       </c>
       <c r="G19" t="n">
-        <v>13263</v>
+        <v>23691</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>אבן יהודה</t>
+          <t>קרית מלאכי</t>
         </is>
       </c>
     </row>
@@ -915,26 +915,26 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C20" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F20" t="n">
-        <v>131</v>
+        <v>665</v>
       </c>
       <c r="G20" t="n">
-        <v>7373</v>
+        <v>20041</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>קצרין</t>
+          <t>שוהם</t>
         </is>
       </c>
     </row>
@@ -943,26 +943,26 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="C21" t="n">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>199</v>
+        <v>24</v>
       </c>
       <c r="F21" t="n">
-        <v>1921</v>
+        <v>291</v>
       </c>
       <c r="G21" t="n">
-        <v>120812</v>
+        <v>13263</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>בית שמש</t>
+          <t>אבן יהודה</t>
         </is>
       </c>
     </row>
@@ -971,26 +971,26 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C22" t="n">
-        <v>236</v>
+        <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>228</v>
+        <v>13</v>
       </c>
       <c r="F22" t="n">
-        <v>3440</v>
+        <v>131</v>
       </c>
       <c r="G22" t="n">
-        <v>139032</v>
+        <v>7373</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>אשקלון</t>
+          <t>קצרין</t>
         </is>
       </c>
     </row>
@@ -999,26 +999,26 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E23" t="n">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="F23" t="n">
-        <v>212</v>
+        <v>1921</v>
       </c>
       <c r="G23" t="n">
-        <v>7364</v>
+        <v>120812</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>קרית ארבע</t>
+          <t>בית שמש</t>
         </is>
       </c>
     </row>
@@ -1027,82 +1027,82 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C24" t="n">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>228</v>
       </c>
       <c r="F24" t="n">
-        <v>139</v>
+        <v>3440</v>
       </c>
       <c r="G24" t="n">
-        <v>6367</v>
+        <v>139032</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>שבלי - אום</t>
+          <t>אשקלון</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C25" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>5</v>
       </c>
       <c r="E25" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F25" t="n">
-        <v>443</v>
+        <v>212</v>
       </c>
       <c r="G25" t="n">
-        <v>22341</v>
+        <v>7364</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>אל-גנם זכרון יעקב</t>
+          <t>קרית ארבע</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C26" t="n">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D26" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>600</v>
+        <v>139</v>
       </c>
       <c r="G26" t="n">
-        <v>35671</v>
+        <v>6367</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>צפת</t>
+          <t>שבלי - אום</t>
         </is>
       </c>
     </row>
@@ -1111,26 +1111,26 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C27" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D27" t="n">
         <v>5</v>
       </c>
       <c r="E27" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F27" t="n">
-        <v>582</v>
+        <v>443</v>
       </c>
       <c r="G27" t="n">
-        <v>18930</v>
+        <v>22341</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>גני תקווה</t>
+          <t>אל-גנם זכרון יעקב</t>
         </is>
       </c>
     </row>
@@ -1139,26 +1139,26 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C28" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F28" t="n">
-        <v>630</v>
+        <v>600</v>
       </c>
       <c r="G28" t="n">
-        <v>24538</v>
+        <v>35671</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>גבעת שמואל</t>
+          <t>צפת</t>
         </is>
       </c>
     </row>
@@ -1167,82 +1167,82 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C29" t="n">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="D29" t="n">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="E29" t="n">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="F29" t="n">
-        <v>2638</v>
+        <v>582</v>
       </c>
       <c r="G29" t="n">
-        <v>87108</v>
+        <v>18930</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>מודיעין-מכבים-</t>
+          <t>גני תקווה</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C30" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E30" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F30" t="n">
-        <v>546</v>
+        <v>630</v>
       </c>
       <c r="G30" t="n">
-        <v>11910</v>
+        <v>24538</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>רעות ג'ת</t>
+          <t>גבעת שמואל</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E31" t="n">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="F31" t="n">
-        <v>93</v>
+        <v>2638</v>
       </c>
       <c r="G31" t="n">
-        <v>5299</v>
+        <v>87108</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>גבע בנימין</t>
+          <t>מודיעין-מכבים-</t>
         </is>
       </c>
     </row>
@@ -1251,26 +1251,26 @@
         <v>32</v>
       </c>
       <c r="B32" t="n">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F32" t="n">
-        <v>230</v>
+        <v>546</v>
       </c>
       <c r="G32" t="n">
-        <v>8016</v>
+        <v>11910</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>עומר</t>
+          <t>רעות ג'ת</t>
         </is>
       </c>
     </row>
@@ -1279,26 +1279,26 @@
         <v>33</v>
       </c>
       <c r="B33" t="n">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C33" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F33" t="n">
-        <v>441</v>
+        <v>93</v>
       </c>
       <c r="G33" t="n">
-        <v>18510</v>
+        <v>5299</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>גבעת זאב</t>
+          <t>גבע בנימין</t>
         </is>
       </c>
     </row>
@@ -1307,26 +1307,26 @@
         <v>34</v>
       </c>
       <c r="B34" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C34" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F34" t="n">
-        <v>1019</v>
+        <v>230</v>
       </c>
       <c r="G34" t="n">
-        <v>37112</v>
+        <v>8016</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>קרית אונו</t>
+          <t>עומר</t>
         </is>
       </c>
     </row>
@@ -1335,26 +1335,26 @@
         <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C35" t="n">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="D35" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="F35" t="n">
-        <v>1669</v>
+        <v>441</v>
       </c>
       <c r="G35" t="n">
-        <v>73979</v>
+        <v>18510</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>רעננה</t>
+          <t>גבעת זאב</t>
         </is>
       </c>
     </row>
@@ -1363,26 +1363,26 @@
         <v>36</v>
       </c>
       <c r="B36" t="n">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C36" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D36" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E36" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F36" t="n">
-        <v>548</v>
+        <v>1019</v>
       </c>
       <c r="G36" t="n">
-        <v>22410</v>
+        <v>37112</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>גן יבנה</t>
+          <t>קרית אונו</t>
         </is>
       </c>
     </row>
@@ -1391,26 +1391,26 @@
         <v>37</v>
       </c>
       <c r="B37" t="n">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C37" t="n">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="D37" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E37" t="n">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="F37" t="n">
-        <v>276</v>
+        <v>1669</v>
       </c>
       <c r="G37" t="n">
-        <v>12593</v>
+        <v>73979</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>תל מונד</t>
+          <t>רעננה</t>
         </is>
       </c>
     </row>
@@ -1419,26 +1419,26 @@
         <v>38</v>
       </c>
       <c r="B38" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C38" t="n">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="D38" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E38" t="n">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="F38" t="n">
-        <v>1084</v>
+        <v>548</v>
       </c>
       <c r="G38" t="n">
-        <v>50886</v>
+        <v>22410</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>עפולה</t>
+          <t>גן יבנה</t>
         </is>
       </c>
     </row>
@@ -1447,26 +1447,26 @@
         <v>39</v>
       </c>
       <c r="B39" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C39" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D39" t="n">
         <v>5</v>
       </c>
       <c r="E39" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F39" t="n">
-        <v>621</v>
+        <v>276</v>
       </c>
       <c r="G39" t="n">
-        <v>30185</v>
+        <v>12593</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>אופקים</t>
+          <t>תל מונד</t>
         </is>
       </c>
     </row>
@@ -1475,26 +1475,26 @@
         <v>40</v>
       </c>
       <c r="B40" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C40" t="n">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="D40" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E40" t="n">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="F40" t="n">
-        <v>2426</v>
+        <v>1084</v>
       </c>
       <c r="G40" t="n">
-        <v>130523</v>
+        <v>50886</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>בת ים</t>
+          <t>עפולה</t>
         </is>
       </c>
     </row>
@@ -1503,26 +1503,26 @@
         <v>41</v>
       </c>
       <c r="B41" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C41" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E41" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F41" t="n">
-        <v>572</v>
+        <v>621</v>
       </c>
       <c r="G41" t="n">
-        <v>25891</v>
+        <v>30185</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>שדרות</t>
+          <t>אופקים</t>
         </is>
       </c>
     </row>
@@ -1531,26 +1531,26 @@
         <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C42" t="n">
-        <v>8</v>
+        <v>153</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E42" t="n">
-        <v>7</v>
+        <v>142</v>
       </c>
       <c r="F42" t="n">
-        <v>141</v>
+        <v>2426</v>
       </c>
       <c r="G42" t="n">
-        <v>6478</v>
+        <v>130523</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>שלומי</t>
+          <t>בת ים</t>
         </is>
       </c>
     </row>
@@ -1559,26 +1559,26 @@
         <v>43</v>
       </c>
       <c r="B43" t="n">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C43" t="n">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="D43" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E43" t="n">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="F43" t="n">
-        <v>1977</v>
+        <v>572</v>
       </c>
       <c r="G43" t="n">
-        <v>90900</v>
+        <v>25891</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>הרצליה</t>
+          <t>שדרות</t>
         </is>
       </c>
     </row>
@@ -1587,26 +1587,26 @@
         <v>44</v>
       </c>
       <c r="B44" t="n">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C44" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="G44" t="n">
-        <v>7906</v>
+        <v>6478</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>קרני שומרון</t>
+          <t>שלומי</t>
         </is>
       </c>
     </row>
@@ -1615,26 +1615,26 @@
         <v>45</v>
       </c>
       <c r="B45" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C45" t="n">
-        <v>539</v>
+        <v>115</v>
       </c>
       <c r="D45" t="n">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="E45" t="n">
-        <v>452</v>
+        <v>93</v>
       </c>
       <c r="F45" t="n">
-        <v>11013</v>
+        <v>1977</v>
       </c>
       <c r="G45" t="n">
-        <v>450192</v>
+        <v>90900</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>תל אביב - יפו</t>
+          <t>הרצליה</t>
         </is>
       </c>
     </row>
@@ -1643,26 +1643,26 @@
         <v>46</v>
       </c>
       <c r="B46" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C46" t="n">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="D46" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F46" t="n">
-        <v>1002</v>
+        <v>115</v>
       </c>
       <c r="G46" t="n">
-        <v>37469</v>
+        <v>7906</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>מעלה אדומים</t>
+          <t>קרני שומרון</t>
         </is>
       </c>
     </row>
@@ -1671,26 +1671,26 @@
         <v>47</v>
       </c>
       <c r="B47" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>539</v>
       </c>
       <c r="D47" t="n">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="E47" t="n">
-        <v>9</v>
+        <v>452</v>
       </c>
       <c r="F47" t="n">
-        <v>263</v>
+        <v>11013</v>
       </c>
       <c r="G47" t="n">
-        <v>9143</v>
+        <v>450192</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>כוכב יאיר</t>
+          <t>תל אביב - יפו</t>
         </is>
       </c>
     </row>
@@ -1699,26 +1699,26 @@
         <v>48</v>
       </c>
       <c r="B48" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C48" t="n">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E48" t="n">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="F48" t="n">
-        <v>212</v>
+        <v>1002</v>
       </c>
       <c r="G48" t="n">
-        <v>6178</v>
+        <v>37469</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>להבים</t>
+          <t>מעלה אדומים</t>
         </is>
       </c>
     </row>
@@ -1727,26 +1727,26 @@
         <v>49</v>
       </c>
       <c r="B49" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C49" t="n">
-        <v>137</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E49" t="n">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="F49" t="n">
-        <v>3517</v>
+        <v>263</v>
       </c>
       <c r="G49" t="n">
-        <v>143370</v>
+        <v>9143</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>רמת גן</t>
+          <t>כוכב יאיר</t>
         </is>
       </c>
     </row>
@@ -1755,26 +1755,26 @@
         <v>50</v>
       </c>
       <c r="B50" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C50" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F50" t="n">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="G50" t="n">
-        <v>10567</v>
+        <v>6178</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>דייר חנא</t>
+          <t>להבים</t>
         </is>
       </c>
     </row>
@@ -1783,26 +1783,26 @@
         <v>51</v>
       </c>
       <c r="B51" t="n">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C51" t="n">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E51" t="n">
-        <v>5</v>
+        <v>136</v>
       </c>
       <c r="F51" t="n">
-        <v>94</v>
+        <v>3517</v>
       </c>
       <c r="G51" t="n">
-        <v>5677</v>
+        <v>143370</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>עיילבון</t>
+          <t>רמת גן</t>
         </is>
       </c>
     </row>
@@ -1811,26 +1811,26 @@
         <v>52</v>
       </c>
       <c r="B52" t="n">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C52" t="n">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F52" t="n">
-        <v>658</v>
+        <v>185</v>
       </c>
       <c r="G52" t="n">
-        <v>36511</v>
+        <v>10567</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>נתיבות</t>
+          <t>דייר חנא</t>
         </is>
       </c>
     </row>
@@ -1839,26 +1839,26 @@
         <v>53</v>
       </c>
       <c r="B53" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C53" t="n">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="D53" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>162</v>
+        <v>5</v>
       </c>
       <c r="F53" t="n">
-        <v>3793</v>
+        <v>94</v>
       </c>
       <c r="G53" t="n">
-        <v>185741</v>
+        <v>5677</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>חולון</t>
+          <t>עיילבון</t>
         </is>
       </c>
     </row>
@@ -1867,26 +1867,26 @@
         <v>54</v>
       </c>
       <c r="B54" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C54" t="n">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="D54" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E54" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F54" t="n">
-        <v>1019</v>
+        <v>658</v>
       </c>
       <c r="G54" t="n">
-        <v>44896</v>
+        <v>36511</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>רמת השרון</t>
+          <t>נתיבות</t>
         </is>
       </c>
     </row>
@@ -1898,23 +1898,23 @@
         <v>87</v>
       </c>
       <c r="C55" t="n">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E55" t="n">
-        <v>5</v>
+        <v>162</v>
       </c>
       <c r="F55" t="n">
-        <v>99</v>
+        <v>3793</v>
       </c>
       <c r="G55" t="n">
-        <v>5767</v>
+        <v>185741</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>בית אל</t>
+          <t>חולון</t>
         </is>
       </c>
     </row>
@@ -1926,23 +1926,23 @@
         <v>87</v>
       </c>
       <c r="C56" t="n">
-        <v>268</v>
+        <v>34</v>
       </c>
       <c r="D56" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E56" t="n">
-        <v>210</v>
+        <v>39</v>
       </c>
       <c r="F56" t="n">
-        <v>4774</v>
+        <v>1019</v>
       </c>
       <c r="G56" t="n">
-        <v>242478</v>
+        <v>44896</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>פתח תקווה</t>
+          <t>רמת השרון</t>
         </is>
       </c>
     </row>
@@ -1951,26 +1951,26 @@
         <v>57</v>
       </c>
       <c r="B57" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C57" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D57" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F57" t="n">
-        <v>515</v>
+        <v>99</v>
       </c>
       <c r="G57" t="n">
-        <v>24633</v>
+        <v>5767</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>גדרה</t>
+          <t>בית אל</t>
         </is>
       </c>
     </row>
@@ -1979,26 +1979,26 @@
         <v>58</v>
       </c>
       <c r="B58" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C58" t="n">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="D58" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E58" t="n">
-        <v>62</v>
+        <v>210</v>
       </c>
       <c r="F58" t="n">
-        <v>1224</v>
+        <v>4774</v>
       </c>
       <c r="G58" t="n">
-        <v>75038</v>
+        <v>242478</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>לוד</t>
+          <t>פתח תקווה</t>
         </is>
       </c>
     </row>
@@ -2007,26 +2007,26 @@
         <v>59</v>
       </c>
       <c r="B59" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C59" t="n">
-        <v>337</v>
+        <v>21</v>
       </c>
       <c r="D59" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E59" t="n">
-        <v>195</v>
+        <v>21</v>
       </c>
       <c r="F59" t="n">
-        <v>5744</v>
+        <v>515</v>
       </c>
       <c r="G59" t="n">
-        <v>241010</v>
+        <v>24633</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>ראשון לציון</t>
+          <t>גדרה</t>
         </is>
       </c>
     </row>
@@ -2035,26 +2035,26 @@
         <v>60</v>
       </c>
       <c r="B60" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C60" t="n">
-        <v>225</v>
+        <v>79</v>
       </c>
       <c r="D60" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E60" t="n">
-        <v>173</v>
+        <v>62</v>
       </c>
       <c r="F60" t="n">
-        <v>4151</v>
+        <v>1224</v>
       </c>
       <c r="G60" t="n">
-        <v>225073</v>
+        <v>75038</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>אשדוד</t>
+          <t>לוד</t>
         </is>
       </c>
     </row>
@@ -2063,26 +2063,26 @@
         <v>61</v>
       </c>
       <c r="B61" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C61" t="n">
-        <v>33</v>
+        <v>337</v>
       </c>
       <c r="D61" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E61" t="n">
-        <v>27</v>
+        <v>195</v>
       </c>
       <c r="F61" t="n">
-        <v>735</v>
+        <v>5744</v>
       </c>
       <c r="G61" t="n">
-        <v>35377</v>
+        <v>241010</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>דימונה</t>
+          <t>ראשון לציון</t>
         </is>
       </c>
     </row>
@@ -2091,26 +2091,26 @@
         <v>62</v>
       </c>
       <c r="B62" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C62" t="n">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="D62" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E62" t="n">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="F62" t="n">
-        <v>3308</v>
+        <v>4151</v>
       </c>
       <c r="G62" t="n">
-        <v>213971</v>
+        <v>225073</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>נתניה</t>
+          <t>אשדוד</t>
         </is>
       </c>
     </row>
@@ -2119,26 +2119,26 @@
         <v>63</v>
       </c>
       <c r="B63" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C63" t="n">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="D63" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E63" t="n">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="F63" t="n">
-        <v>1346</v>
+        <v>735</v>
       </c>
       <c r="G63" t="n">
-        <v>75246</v>
+        <v>35377</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>רמלה</t>
+          <t>דימונה</t>
         </is>
       </c>
     </row>
@@ -2147,26 +2147,26 @@
         <v>64</v>
       </c>
       <c r="B64" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C64" t="n">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E64" t="n">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="F64" t="n">
-        <v>571</v>
+        <v>3308</v>
       </c>
       <c r="G64" t="n">
-        <v>24216</v>
+        <v>213971</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>באר יעקב</t>
+          <t>נתניה</t>
         </is>
       </c>
     </row>
@@ -2175,26 +2175,26 @@
         <v>65</v>
       </c>
       <c r="B65" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C65" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E65" t="n">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="F65" t="n">
-        <v>134</v>
+        <v>1346</v>
       </c>
       <c r="G65" t="n">
-        <v>6837</v>
+        <v>75246</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>בני עי"ש</t>
+          <t>רמלה</t>
         </is>
       </c>
     </row>
@@ -2203,26 +2203,26 @@
         <v>66</v>
       </c>
       <c r="B66" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C66" t="n">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D66" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F66" t="n">
-        <v>1017</v>
+        <v>571</v>
       </c>
       <c r="G66" t="n">
-        <v>45555</v>
+        <v>24216</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>יבנה</t>
+          <t>באר יעקב</t>
         </is>
       </c>
     </row>
@@ -2231,26 +2231,26 @@
         <v>67</v>
       </c>
       <c r="B67" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C67" t="n">
-        <v>227</v>
+        <v>10</v>
       </c>
       <c r="D67" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E67" t="n">
-        <v>141</v>
+        <v>5</v>
       </c>
       <c r="F67" t="n">
-        <v>4392</v>
+        <v>134</v>
       </c>
       <c r="G67" t="n">
-        <v>196755</v>
+        <v>6837</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>באר שבע</t>
+          <t>בני עי"ש</t>
         </is>
       </c>
     </row>
@@ -2259,26 +2259,26 @@
         <v>68</v>
       </c>
       <c r="B68" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C68" t="n">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="D68" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E68" t="n">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="F68" t="n">
-        <v>1734</v>
+        <v>1017</v>
       </c>
       <c r="G68" t="n">
-        <v>97412</v>
+        <v>45555</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>כפר סבא</t>
+          <t>יבנה</t>
         </is>
       </c>
     </row>
@@ -2287,26 +2287,26 @@
         <v>69</v>
       </c>
       <c r="B69" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C69" t="n">
-        <v>24</v>
+        <v>227</v>
       </c>
       <c r="D69" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E69" t="n">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="F69" t="n">
-        <v>436</v>
+        <v>4392</v>
       </c>
       <c r="G69" t="n">
-        <v>20831</v>
+        <v>196755</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>קדימה-צורן</t>
+          <t>באר שבע</t>
         </is>
       </c>
     </row>
@@ -2315,26 +2315,26 @@
         <v>70</v>
       </c>
       <c r="B70" t="n">
+        <v>69</v>
+      </c>
+      <c r="C70" t="n">
+        <v>87</v>
+      </c>
+      <c r="D70" t="n">
+        <v>12</v>
+      </c>
+      <c r="E70" t="n">
         <v>67</v>
       </c>
-      <c r="C70" t="n">
-        <v>5</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>4</v>
-      </c>
       <c r="F70" t="n">
-        <v>126</v>
+        <v>1734</v>
       </c>
       <c r="G70" t="n">
-        <v>5954</v>
+        <v>97412</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>צור יצחק</t>
+          <t>כפר סבא</t>
         </is>
       </c>
     </row>
@@ -2346,23 +2346,23 @@
         <v>67</v>
       </c>
       <c r="C71" t="n">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="D71" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="E71" t="n">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="F71" t="n">
-        <v>2710</v>
+        <v>436</v>
       </c>
       <c r="G71" t="n">
-        <v>137178</v>
+        <v>20831</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>רחובות</t>
+          <t>קדימה-צורן</t>
         </is>
       </c>
     </row>
@@ -2374,23 +2374,23 @@
         <v>67</v>
       </c>
       <c r="C72" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F72" t="n">
-        <v>392</v>
+        <v>126</v>
       </c>
       <c r="G72" t="n">
-        <v>14949</v>
+        <v>5954</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>מזכרת בתיה</t>
+          <t>צור יצחק</t>
         </is>
       </c>
     </row>
@@ -2399,26 +2399,26 @@
         <v>73</v>
       </c>
       <c r="B73" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C73" t="n">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="D73" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E73" t="n">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="F73" t="n">
-        <v>199</v>
+        <v>2710</v>
       </c>
       <c r="G73" t="n">
-        <v>10600</v>
+        <v>137178</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>קרית עקרון</t>
+          <t>רחובות</t>
         </is>
       </c>
     </row>
@@ -2427,26 +2427,26 @@
         <v>74</v>
       </c>
       <c r="B74" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C74" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F74" t="n">
-        <v>443</v>
+        <v>392</v>
       </c>
       <c r="G74" t="n">
-        <v>21301</v>
+        <v>14949</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>כפר יונה</t>
+          <t>מזכרת בתיה</t>
         </is>
       </c>
     </row>
@@ -2455,26 +2455,26 @@
         <v>75</v>
       </c>
       <c r="B75" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C75" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E75" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F75" t="n">
-        <v>599</v>
+        <v>199</v>
       </c>
       <c r="G75" t="n">
-        <v>46596</v>
+        <v>10600</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>כרמיאל</t>
+          <t>קרית עקרון</t>
         </is>
       </c>
     </row>
@@ -2483,26 +2483,26 @@
         <v>76</v>
       </c>
       <c r="B76" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D76" t="n">
         <v>2</v>
       </c>
       <c r="E76" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F76" t="n">
-        <v>143</v>
+        <v>443</v>
       </c>
       <c r="G76" t="n">
-        <v>7771</v>
+        <v>21301</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>אלפי מנשה</t>
+          <t>כפר יונה</t>
         </is>
       </c>
     </row>
@@ -2514,23 +2514,23 @@
         <v>64</v>
       </c>
       <c r="C77" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E77" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F77" t="n">
-        <v>244</v>
+        <v>599</v>
       </c>
       <c r="G77" t="n">
-        <v>7856</v>
+        <v>46596</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>צור הדסה</t>
+          <t>כרמיאל</t>
         </is>
       </c>
     </row>
@@ -2539,26 +2539,26 @@
         <v>78</v>
       </c>
       <c r="B78" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C78" t="n">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E78" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F78" t="n">
-        <v>1262</v>
+        <v>143</v>
       </c>
       <c r="G78" t="n">
-        <v>53965</v>
+        <v>7771</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>ראש העין</t>
+          <t>אלפי מנשה</t>
         </is>
       </c>
     </row>
@@ -2567,26 +2567,26 @@
         <v>79</v>
       </c>
       <c r="B79" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C79" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E79" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F79" t="n">
-        <v>356</v>
+        <v>244</v>
       </c>
       <c r="G79" t="n">
-        <v>22243</v>
+        <v>7856</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>טירת כרמל</t>
+          <t>צור הדסה</t>
         </is>
       </c>
     </row>
@@ -2595,26 +2595,26 @@
         <v>80</v>
       </c>
       <c r="B80" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C80" t="n">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E80" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F80" t="n">
-        <v>662</v>
+        <v>1262</v>
       </c>
       <c r="G80" t="n">
-        <v>29035</v>
+        <v>53965</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>באקה אל-  גרביה</t>
+          <t>ראש העין</t>
         </is>
       </c>
     </row>
@@ -2623,10 +2623,10 @@
         <v>81</v>
       </c>
       <c r="B81" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C81" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D81" t="n">
         <v>2</v>
@@ -2635,14 +2635,14 @@
         <v>14</v>
       </c>
       <c r="F81" t="n">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="G81" t="n">
-        <v>22711</v>
+        <v>22243</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>יקנעם עילית</t>
+          <t>טירת כרמל</t>
         </is>
       </c>
     </row>
@@ -2654,23 +2654,23 @@
         <v>62</v>
       </c>
       <c r="C82" t="n">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="D82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F82" t="n">
-        <v>1041</v>
+        <v>662</v>
       </c>
       <c r="G82" t="n">
-        <v>43811</v>
+        <v>29035</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>נוף הגליל</t>
+          <t>באקה אל-  גרביה</t>
         </is>
       </c>
     </row>
@@ -2679,26 +2679,26 @@
         <v>83</v>
       </c>
       <c r="B83" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C83" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D83" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E83" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F83" t="n">
-        <v>854</v>
+        <v>326</v>
       </c>
       <c r="G83" t="n">
-        <v>55400</v>
+        <v>22711</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>קרית גת</t>
+          <t>יקנעם עילית</t>
         </is>
       </c>
     </row>
@@ -2707,26 +2707,26 @@
         <v>84</v>
       </c>
       <c r="B84" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C84" t="n">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E84" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F84" t="n">
-        <v>126</v>
+        <v>1041</v>
       </c>
       <c r="G84" t="n">
-        <v>6533</v>
+        <v>43811</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>בית דגן</t>
+          <t>נוף הגליל</t>
         </is>
       </c>
     </row>
@@ -2738,23 +2738,23 @@
         <v>61</v>
       </c>
       <c r="C85" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D85" t="n">
         <v>6</v>
       </c>
       <c r="E85" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F85" t="n">
-        <v>1148</v>
+        <v>854</v>
       </c>
       <c r="G85" t="n">
-        <v>59171</v>
+        <v>55400</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>הוד השרון</t>
+          <t>קרית גת</t>
         </is>
       </c>
     </row>
@@ -2763,26 +2763,26 @@
         <v>86</v>
       </c>
       <c r="B86" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C86" t="n">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D86" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="F86" t="n">
-        <v>1234</v>
+        <v>126</v>
       </c>
       <c r="G86" t="n">
-        <v>55123</v>
+        <v>6533</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>גבעתיים</t>
+          <t>בית דגן</t>
         </is>
       </c>
     </row>
@@ -2791,26 +2791,26 @@
         <v>87</v>
       </c>
       <c r="B87" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C87" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D87" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E87" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F87" t="n">
-        <v>972</v>
+        <v>1148</v>
       </c>
       <c r="G87" t="n">
-        <v>55324</v>
+        <v>59171</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>אום אל-פחם</t>
+          <t>הוד השרון</t>
         </is>
       </c>
     </row>
@@ -2819,26 +2819,26 @@
         <v>88</v>
       </c>
       <c r="B88" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C88" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D88" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F88" t="n">
-        <v>591</v>
+        <v>1234</v>
       </c>
       <c r="G88" t="n">
-        <v>23093</v>
+        <v>55123</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>מבשרת ציון</t>
+          <t>גבעתיים</t>
         </is>
       </c>
     </row>
@@ -2847,26 +2847,26 @@
         <v>89</v>
       </c>
       <c r="B89" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C89" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="D89" t="n">
         <v>3</v>
       </c>
       <c r="E89" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F89" t="n">
-        <v>322</v>
+        <v>972</v>
       </c>
       <c r="G89" t="n">
-        <v>26763</v>
+        <v>55324</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>ערד</t>
+          <t>אום אל-פחם</t>
         </is>
       </c>
     </row>
@@ -2875,26 +2875,26 @@
         <v>90</v>
       </c>
       <c r="B90" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C90" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E90" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F90" t="n">
-        <v>316</v>
+        <v>591</v>
       </c>
       <c r="G90" t="n">
-        <v>22152</v>
+        <v>23093</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>קרית שמונה</t>
+          <t>מבשרת ציון</t>
         </is>
       </c>
     </row>
@@ -2903,26 +2903,26 @@
         <v>91</v>
       </c>
       <c r="B91" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E91" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F91" t="n">
-        <v>99</v>
+        <v>322</v>
       </c>
       <c r="G91" t="n">
-        <v>5599</v>
+        <v>26763</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>כפר ורדים</t>
+          <t>ערד</t>
         </is>
       </c>
     </row>
@@ -2931,26 +2931,26 @@
         <v>92</v>
       </c>
       <c r="B92" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C92" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E92" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F92" t="n">
-        <v>641</v>
+        <v>316</v>
       </c>
       <c r="G92" t="n">
-        <v>39556</v>
+        <v>22152</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>קרית ים</t>
+          <t>קרית שמונה</t>
         </is>
       </c>
     </row>
@@ -2959,26 +2959,26 @@
         <v>93</v>
       </c>
       <c r="B93" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C93" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F93" t="n">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="G93" t="n">
-        <v>9866</v>
+        <v>5599</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>ביר אל-מכסור</t>
+          <t>כפר ורדים</t>
         </is>
       </c>
     </row>
@@ -2987,26 +2987,26 @@
         <v>94</v>
       </c>
       <c r="B94" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C94" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E94" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F94" t="n">
-        <v>174</v>
+        <v>641</v>
       </c>
       <c r="G94" t="n">
-        <v>10011</v>
+        <v>39556</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>ג'לג'וליה</t>
+          <t>קרית ים</t>
         </is>
       </c>
     </row>
@@ -3015,10 +3015,10 @@
         <v>95</v>
       </c>
       <c r="B95" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C95" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -3027,14 +3027,14 @@
         <v>5</v>
       </c>
       <c r="F95" t="n">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="G95" t="n">
-        <v>10126</v>
+        <v>9866</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>ירוחם</t>
+          <t>ביר אל-מכסור</t>
         </is>
       </c>
     </row>
@@ -3043,26 +3043,26 @@
         <v>96</v>
       </c>
       <c r="B96" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C96" t="n">
-        <v>212</v>
+        <v>11</v>
       </c>
       <c r="D96" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="F96" t="n">
-        <v>3995</v>
+        <v>174</v>
       </c>
       <c r="G96" t="n">
-        <v>272584</v>
+        <v>10011</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>חיפה</t>
+          <t>ג'לג'וליה</t>
         </is>
       </c>
     </row>
@@ -3071,26 +3071,26 @@
         <v>97</v>
       </c>
       <c r="B97" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C97" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F97" t="n">
-        <v>226</v>
+        <v>153</v>
       </c>
       <c r="G97" t="n">
-        <v>12435</v>
+        <v>10126</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>דייר אל-אסד</t>
+          <t>ירוחם</t>
         </is>
       </c>
     </row>
@@ -3099,26 +3099,26 @@
         <v>98</v>
       </c>
       <c r="B98" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C98" t="n">
-        <v>60</v>
+        <v>212</v>
       </c>
       <c r="D98" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E98" t="n">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="F98" t="n">
-        <v>1057</v>
+        <v>3995</v>
       </c>
       <c r="G98" t="n">
-        <v>58750</v>
+        <v>272584</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>נהריה</t>
+          <t>חיפה</t>
         </is>
       </c>
     </row>
@@ -3127,26 +3127,26 @@
         <v>99</v>
       </c>
       <c r="B99" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C99" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D99" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F99" t="n">
-        <v>535</v>
+        <v>226</v>
       </c>
       <c r="G99" t="n">
-        <v>33792</v>
+        <v>12435</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>טמרה</t>
+          <t>דייר אל-אסד</t>
         </is>
       </c>
     </row>
@@ -3155,26 +3155,26 @@
         <v>100</v>
       </c>
       <c r="B100" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C100" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E100" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F100" t="n">
-        <v>224</v>
+        <v>1057</v>
       </c>
       <c r="G100" t="n">
-        <v>8737</v>
+        <v>58750</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>חריש</t>
+          <t>נהריה</t>
         </is>
       </c>
     </row>
@@ -3183,26 +3183,26 @@
         <v>101</v>
       </c>
       <c r="B101" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C101" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E101" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F101" t="n">
-        <v>235</v>
+        <v>535</v>
       </c>
       <c r="G101" t="n">
-        <v>22261</v>
+        <v>33792</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>מעלות-  תרשיחא</t>
+          <t>טמרה</t>
         </is>
       </c>
     </row>
@@ -3211,26 +3211,26 @@
         <v>102</v>
       </c>
       <c r="B102" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C102" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
       </c>
       <c r="F102" t="n">
-        <v>341</v>
+        <v>224</v>
       </c>
       <c r="G102" t="n">
-        <v>9043</v>
+        <v>8737</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>מיתר</t>
+          <t>חריש</t>
         </is>
       </c>
     </row>
@@ -3239,26 +3239,26 @@
         <v>103</v>
       </c>
       <c r="B103" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C103" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E103" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F103" t="n">
-        <v>139</v>
+        <v>235</v>
       </c>
       <c r="G103" t="n">
-        <v>6926</v>
+        <v>22261</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>זמר</t>
+          <t>מעלות-  תרשיחא</t>
         </is>
       </c>
     </row>
@@ -3267,26 +3267,26 @@
         <v>104</v>
       </c>
       <c r="B104" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C104" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F104" t="n">
-        <v>184</v>
+        <v>341</v>
       </c>
       <c r="G104" t="n">
-        <v>16957</v>
+        <v>9043</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>כסיפה</t>
+          <t>מיתר</t>
         </is>
       </c>
     </row>
@@ -3295,26 +3295,26 @@
         <v>105</v>
       </c>
       <c r="B105" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C105" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F105" t="n">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="G105" t="n">
-        <v>14655</v>
+        <v>6926</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>אכסאל</t>
+          <t>זמר</t>
         </is>
       </c>
     </row>
@@ -3323,26 +3323,26 @@
         <v>106</v>
       </c>
       <c r="B106" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C106" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F106" t="n">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="G106" t="n">
-        <v>14861</v>
+        <v>16957</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>מעלה עירון</t>
+          <t>כסיפה</t>
         </is>
       </c>
     </row>
@@ -3351,26 +3351,26 @@
         <v>107</v>
       </c>
       <c r="B107" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C107" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F107" t="n">
-        <v>992</v>
+        <v>192</v>
       </c>
       <c r="G107" t="n">
-        <v>45714</v>
+        <v>14655</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>נס ציונה</t>
+          <t>אכסאל</t>
         </is>
       </c>
     </row>
@@ -3379,26 +3379,26 @@
         <v>108</v>
       </c>
       <c r="B108" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C108" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F108" t="n">
-        <v>427</v>
+        <v>155</v>
       </c>
       <c r="G108" t="n">
-        <v>18251</v>
+        <v>14861</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>אריאל</t>
+          <t>מעלה עירון</t>
         </is>
       </c>
     </row>
@@ -3407,26 +3407,26 @@
         <v>109</v>
       </c>
       <c r="B109" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C109" t="n">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D109" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F109" t="n">
-        <v>1273</v>
+        <v>992</v>
       </c>
       <c r="G109" t="n">
-        <v>94104</v>
+        <v>45714</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>חדרה</t>
+          <t>נס ציונה</t>
         </is>
       </c>
     </row>
@@ -3435,26 +3435,26 @@
         <v>110</v>
       </c>
       <c r="B110" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C110" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F110" t="n">
-        <v>86</v>
+        <v>427</v>
       </c>
       <c r="G110" t="n">
-        <v>5584</v>
+        <v>18251</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>שערי תקווה</t>
+          <t>אריאל</t>
         </is>
       </c>
     </row>
@@ -3463,26 +3463,26 @@
         <v>111</v>
       </c>
       <c r="B111" t="n">
+        <v>36</v>
+      </c>
+      <c r="C111" t="n">
+        <v>62</v>
+      </c>
+      <c r="D111" t="n">
+        <v>7</v>
+      </c>
+      <c r="E111" t="n">
         <v>34</v>
       </c>
-      <c r="C111" t="n">
-        <v>1</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0</v>
-      </c>
-      <c r="E111" t="n">
-        <v>2</v>
-      </c>
       <c r="F111" t="n">
-        <v>40</v>
+        <v>1273</v>
       </c>
       <c r="G111" t="n">
-        <v>5851</v>
+        <v>94104</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>פקיעין  (בוקייעה)</t>
+          <t>חדרה</t>
         </is>
       </c>
     </row>
@@ -3491,26 +3491,26 @@
         <v>112</v>
       </c>
       <c r="B112" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C112" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F112" t="n">
-        <v>201</v>
+        <v>86</v>
       </c>
       <c r="G112" t="n">
-        <v>8822</v>
+        <v>5584</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>אורנית</t>
+          <t>שערי תקווה</t>
         </is>
       </c>
     </row>
@@ -3519,26 +3519,26 @@
         <v>113</v>
       </c>
       <c r="B113" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C113" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F113" t="n">
-        <v>607</v>
+        <v>40</v>
       </c>
       <c r="G113" t="n">
-        <v>50872</v>
+        <v>5851</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>עכו</t>
+          <t>פקיעין  (בוקייעה)</t>
         </is>
       </c>
     </row>
@@ -3547,26 +3547,26 @@
         <v>114</v>
       </c>
       <c r="B114" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C114" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D114" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F114" t="n">
-        <v>784</v>
+        <v>201</v>
       </c>
       <c r="G114" t="n">
-        <v>57108</v>
+        <v>8822</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>קרית אתא</t>
+          <t>אורנית</t>
         </is>
       </c>
     </row>
@@ -3578,23 +3578,23 @@
         <v>33</v>
       </c>
       <c r="C115" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E115" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F115" t="n">
-        <v>135</v>
+        <v>607</v>
       </c>
       <c r="G115" t="n">
-        <v>6027</v>
+        <v>50872</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>פרדסיה</t>
+          <t>עכו</t>
         </is>
       </c>
     </row>
@@ -3606,23 +3606,23 @@
         <v>33</v>
       </c>
       <c r="C116" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E116" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F116" t="n">
-        <v>68</v>
+        <v>784</v>
       </c>
       <c r="G116" t="n">
-        <v>6147</v>
+        <v>57108</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>ג'ולס</t>
+          <t>קרית אתא</t>
         </is>
       </c>
     </row>
@@ -3631,26 +3631,26 @@
         <v>117</v>
       </c>
       <c r="B117" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C117" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F117" t="n">
-        <v>350</v>
+        <v>135</v>
       </c>
       <c r="G117" t="n">
-        <v>18820</v>
+        <v>6027</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>כפר קרע</t>
+          <t>פרדסיה</t>
         </is>
       </c>
     </row>
@@ -3659,26 +3659,26 @@
         <v>118</v>
       </c>
       <c r="B118" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C118" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D118" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F118" t="n">
-        <v>891</v>
+        <v>68</v>
       </c>
       <c r="G118" t="n">
-        <v>56568</v>
+        <v>6147</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>אילת</t>
+          <t>ג'ולס</t>
         </is>
       </c>
     </row>
@@ -3690,23 +3690,23 @@
         <v>32</v>
       </c>
       <c r="C119" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F119" t="n">
-        <v>66</v>
+        <v>350</v>
       </c>
       <c r="G119" t="n">
-        <v>6288</v>
+        <v>18820</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>חורפיש</t>
+          <t>כפר קרע</t>
         </is>
       </c>
     </row>
@@ -3718,23 +3718,23 @@
         <v>32</v>
       </c>
       <c r="C120" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E120" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F120" t="n">
-        <v>208</v>
+        <v>891</v>
       </c>
       <c r="G120" t="n">
-        <v>18893</v>
+        <v>56568</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>אור עקיבא</t>
+          <t>אילת</t>
         </is>
       </c>
     </row>
@@ -3743,26 +3743,26 @@
         <v>121</v>
       </c>
       <c r="B121" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C121" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F121" t="n">
-        <v>254</v>
+        <v>66</v>
       </c>
       <c r="G121" t="n">
-        <v>22364</v>
+        <v>6288</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>מגאר</t>
+          <t>חורפיש</t>
         </is>
       </c>
     </row>
@@ -3771,26 +3771,26 @@
         <v>122</v>
       </c>
       <c r="B122" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C122" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F122" t="n">
-        <v>567</v>
+        <v>208</v>
       </c>
       <c r="G122" t="n">
-        <v>39262</v>
+        <v>18893</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>קרית ביאליק</t>
+          <t>אור עקיבא</t>
         </is>
       </c>
     </row>
@@ -3799,26 +3799,26 @@
         <v>123</v>
       </c>
       <c r="B123" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C123" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D123" t="n">
         <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F123" t="n">
-        <v>101</v>
+        <v>254</v>
       </c>
       <c r="G123" t="n">
-        <v>13167</v>
+        <v>22364</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>נחף</t>
+          <t>מגאר</t>
         </is>
       </c>
     </row>
@@ -3827,26 +3827,26 @@
         <v>124</v>
       </c>
       <c r="B124" t="n">
+        <v>31</v>
+      </c>
+      <c r="C124" t="n">
         <v>30</v>
-      </c>
-      <c r="C124" t="n">
-        <v>5</v>
       </c>
       <c r="D124" t="n">
         <v>2</v>
       </c>
       <c r="E124" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F124" t="n">
-        <v>56</v>
+        <v>567</v>
       </c>
       <c r="G124" t="n">
-        <v>6586</v>
+        <v>39262</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>בוקעאתא</t>
+          <t>קרית ביאליק</t>
         </is>
       </c>
     </row>
@@ -3858,23 +3858,23 @@
         <v>30</v>
       </c>
       <c r="C125" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F125" t="n">
-        <v>563</v>
+        <v>101</v>
       </c>
       <c r="G125" t="n">
-        <v>23517</v>
+        <v>13167</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>כפר קאסם</t>
+          <t>נחף</t>
         </is>
       </c>
     </row>
@@ -3883,26 +3883,26 @@
         <v>126</v>
       </c>
       <c r="B126" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C126" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F126" t="n">
-        <v>175</v>
+        <v>56</v>
       </c>
       <c r="G126" t="n">
-        <v>10532</v>
+        <v>6586</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>בסמ"ה</t>
+          <t>בוקעאתא</t>
         </is>
       </c>
     </row>
@@ -3911,26 +3911,26 @@
         <v>127</v>
       </c>
       <c r="B127" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C127" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F127" t="n">
-        <v>168</v>
+        <v>563</v>
       </c>
       <c r="G127" t="n">
-        <v>7236</v>
+        <v>23517</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>רמת ישי</t>
+          <t>כפר קאסם</t>
         </is>
       </c>
     </row>
@@ -3939,26 +3939,26 @@
         <v>128</v>
       </c>
       <c r="B128" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C128" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F128" t="n">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="G128" t="n">
-        <v>7442</v>
+        <v>10532</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>עתלית</t>
+          <t>בסמ"ה</t>
         </is>
       </c>
     </row>
@@ -3967,26 +3967,26 @@
         <v>129</v>
       </c>
       <c r="B129" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C129" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E129" t="n">
         <v>2</v>
       </c>
       <c r="F129" t="n">
-        <v>65</v>
+        <v>168</v>
       </c>
       <c r="G129" t="n">
-        <v>7833</v>
+        <v>7236</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>בסמת טבעון</t>
+          <t>רמת ישי</t>
         </is>
       </c>
     </row>
@@ -3995,26 +3995,26 @@
         <v>130</v>
       </c>
       <c r="B130" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C130" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F130" t="n">
-        <v>240</v>
+        <v>149</v>
       </c>
       <c r="G130" t="n">
-        <v>12141</v>
+        <v>7442</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>עספיא</t>
+          <t>עתלית</t>
         </is>
       </c>
     </row>
@@ -4023,26 +4023,26 @@
         <v>131</v>
       </c>
       <c r="B131" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C131" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
         <v>2</v>
       </c>
-      <c r="E131" t="n">
-        <v>10</v>
-      </c>
       <c r="F131" t="n">
-        <v>577</v>
+        <v>65</v>
       </c>
       <c r="G131" t="n">
-        <v>40622</v>
+        <v>7833</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>פרדס חנה-  כרכור</t>
+          <t>בסמת טבעון</t>
         </is>
       </c>
     </row>
@@ -4051,26 +4051,26 @@
         <v>132</v>
       </c>
       <c r="B132" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C132" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
         <v>3</v>
       </c>
-      <c r="E132" t="n">
-        <v>10</v>
-      </c>
       <c r="F132" t="n">
-        <v>665</v>
+        <v>240</v>
       </c>
       <c r="G132" t="n">
-        <v>42870</v>
+        <v>12141</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>קרית מוצקין</t>
+          <t>עספיא</t>
         </is>
       </c>
     </row>
@@ -4079,26 +4079,26 @@
         <v>133</v>
       </c>
       <c r="B133" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C133" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E133" t="n">
         <v>10</v>
       </c>
       <c r="F133" t="n">
-        <v>599</v>
+        <v>577</v>
       </c>
       <c r="G133" t="n">
-        <v>43144</v>
+        <v>40622</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>טייבה</t>
+          <t>פרדס חנה-  כרכור</t>
         </is>
       </c>
     </row>
@@ -4110,23 +4110,23 @@
         <v>23</v>
       </c>
       <c r="C134" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D134" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E134" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F134" t="n">
-        <v>301</v>
+        <v>665</v>
       </c>
       <c r="G134" t="n">
-        <v>22032</v>
+        <v>42870</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>נשר</t>
+          <t>קרית מוצקין</t>
         </is>
       </c>
     </row>
@@ -4135,26 +4135,26 @@
         <v>135</v>
       </c>
       <c r="B135" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C135" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F135" t="n">
-        <v>106</v>
+        <v>599</v>
       </c>
       <c r="G135" t="n">
-        <v>13388</v>
+        <v>43144</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>עין מאהל</t>
+          <t>טייבה</t>
         </is>
       </c>
     </row>
@@ -4163,26 +4163,26 @@
         <v>136</v>
       </c>
       <c r="B136" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C136" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E136" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F136" t="n">
-        <v>197</v>
+        <v>301</v>
       </c>
       <c r="G136" t="n">
-        <v>14383</v>
+        <v>22032</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>בנימינה-גבעת  עדה</t>
+          <t>נשר</t>
         </is>
       </c>
     </row>
@@ -4191,26 +4191,26 @@
         <v>137</v>
       </c>
       <c r="B137" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C137" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F137" t="n">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="G137" t="n">
-        <v>9722</v>
+        <v>13388</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>חצור הגלילית</t>
+          <t>עין מאהל</t>
         </is>
       </c>
     </row>
@@ -4219,26 +4219,26 @@
         <v>138</v>
       </c>
       <c r="B138" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C138" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F138" t="n">
-        <v>1015</v>
+        <v>197</v>
       </c>
       <c r="G138" t="n">
-        <v>64649</v>
+        <v>14383</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>רהט</t>
+          <t>בנימינה-גבעת  עדה</t>
         </is>
       </c>
     </row>
@@ -4247,10 +4247,10 @@
         <v>139</v>
       </c>
       <c r="B139" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C139" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -4259,14 +4259,14 @@
         <v>2</v>
       </c>
       <c r="F139" t="n">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="G139" t="n">
-        <v>9974</v>
+        <v>9722</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>בועיינה-  נוג'ידאת</t>
+          <t>חצור הגלילית</t>
         </is>
       </c>
     </row>
@@ -4278,23 +4278,23 @@
         <v>20</v>
       </c>
       <c r="C140" t="n">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D140" t="n">
         <v>1</v>
       </c>
       <c r="E140" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F140" t="n">
-        <v>142</v>
+        <v>1015</v>
       </c>
       <c r="G140" t="n">
-        <v>5124</v>
+        <v>64649</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>בת חפר</t>
+          <t>רהט</t>
         </is>
       </c>
     </row>
@@ -4303,26 +4303,26 @@
         <v>141</v>
       </c>
       <c r="B141" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C141" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F141" t="n">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G141" t="n">
-        <v>5272</v>
+        <v>9974</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>קיסריה</t>
+          <t>בועיינה-  נוג'ידאת</t>
         </is>
       </c>
     </row>
@@ -4331,26 +4331,26 @@
         <v>142</v>
       </c>
       <c r="B142" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C142" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E142" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>274</v>
+        <v>142</v>
       </c>
       <c r="G142" t="n">
-        <v>15831</v>
+        <v>5124</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>קרית טבעון</t>
+          <t>בת חפר</t>
         </is>
       </c>
     </row>
@@ -4362,23 +4362,23 @@
         <v>19</v>
       </c>
       <c r="C143" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" t="n">
         <v>1</v>
       </c>
-      <c r="E143" t="n">
-        <v>2</v>
-      </c>
       <c r="F143" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G143" t="n">
-        <v>10577</v>
+        <v>5272</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>כפר יאסיף</t>
+          <t>קיסריה</t>
         </is>
       </c>
     </row>
@@ -4390,23 +4390,23 @@
         <v>19</v>
       </c>
       <c r="C144" t="n">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D144" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" t="n">
         <v>3</v>
       </c>
-      <c r="E144" t="n">
-        <v>6</v>
-      </c>
       <c r="F144" t="n">
-        <v>443</v>
+        <v>274</v>
       </c>
       <c r="G144" t="n">
-        <v>32089</v>
+        <v>15831</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>סח'נין</t>
+          <t>קרית טבעון</t>
         </is>
       </c>
     </row>
@@ -4415,26 +4415,26 @@
         <v>145</v>
       </c>
       <c r="B145" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C145" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D145" t="n">
+        <v>1</v>
+      </c>
+      <c r="E145" t="n">
         <v>2</v>
       </c>
-      <c r="E145" t="n">
-        <v>3</v>
-      </c>
       <c r="F145" t="n">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G145" t="n">
-        <v>19056</v>
+        <v>10577</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>יפיע</t>
+          <t>כפר יאסיף</t>
         </is>
       </c>
     </row>
@@ -4443,26 +4443,26 @@
         <v>146</v>
       </c>
       <c r="B146" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C146" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E146" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F146" t="n">
-        <v>507</v>
+        <v>443</v>
       </c>
       <c r="G146" t="n">
-        <v>26184</v>
+        <v>32089</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>טירה</t>
+          <t>סח'נין</t>
         </is>
       </c>
     </row>
@@ -4471,26 +4471,26 @@
         <v>147</v>
       </c>
       <c r="B147" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C147" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F147" t="n">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="G147" t="n">
-        <v>13133</v>
+        <v>19056</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>פוריידיס</t>
+          <t>יפיע</t>
         </is>
       </c>
     </row>
@@ -4502,23 +4502,23 @@
         <v>15</v>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D148" t="n">
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F148" t="n">
-        <v>20</v>
+        <v>507</v>
       </c>
       <c r="G148" t="n">
-        <v>6648</v>
+        <v>26184</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>טובא-זנגריה</t>
+          <t>טירה</t>
         </is>
       </c>
     </row>
@@ -4527,26 +4527,26 @@
         <v>149</v>
       </c>
       <c r="B149" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F149" t="n">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="G149" t="n">
-        <v>7792</v>
+        <v>13133</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>אבו גוש</t>
+          <t>פוריידיס</t>
         </is>
       </c>
     </row>
@@ -4555,26 +4555,26 @@
         <v>150</v>
       </c>
       <c r="B150" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C150" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="D150" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" t="n">
         <v>1</v>
       </c>
-      <c r="E150" t="n">
-        <v>10</v>
-      </c>
       <c r="F150" t="n">
-        <v>761</v>
+        <v>20</v>
       </c>
       <c r="G150" t="n">
-        <v>78252</v>
+        <v>6648</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>נצרת</t>
+          <t>טובא-זנגריה</t>
         </is>
       </c>
     </row>
@@ -4583,10 +4583,10 @@
         <v>151</v>
       </c>
       <c r="B151" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C151" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
@@ -4595,14 +4595,14 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="G151" t="n">
-        <v>8355</v>
+        <v>7792</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>בענה</t>
+          <t>אבו גוש</t>
         </is>
       </c>
     </row>
@@ -4611,26 +4611,26 @@
         <v>152</v>
       </c>
       <c r="B152" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E152" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F152" t="n">
-        <v>27</v>
+        <v>761</v>
       </c>
       <c r="G152" t="n">
-        <v>8446</v>
+        <v>78252</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>אבו רובייעה  (שבט)</t>
+          <t>נצרת</t>
         </is>
       </c>
     </row>
@@ -4639,26 +4639,26 @@
         <v>153</v>
       </c>
       <c r="B153" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C153" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>424</v>
+        <v>76</v>
       </c>
       <c r="G153" t="n">
-        <v>19667</v>
+        <v>8355</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>ערערה</t>
+          <t>בענה</t>
         </is>
       </c>
     </row>
@@ -4667,26 +4667,26 @@
         <v>154</v>
       </c>
       <c r="B154" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C154" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D154" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" t="n">
         <v>1</v>
       </c>
-      <c r="E154" t="n">
-        <v>4</v>
-      </c>
       <c r="F154" t="n">
-        <v>380</v>
+        <v>27</v>
       </c>
       <c r="G154" t="n">
-        <v>40666</v>
+        <v>8446</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>שפרעם</t>
+          <t>אבו רובייעה  (שבט)</t>
         </is>
       </c>
     </row>
@@ -4698,7 +4698,7 @@
         <v>10</v>
       </c>
       <c r="C155" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
@@ -4707,14 +4707,14 @@
         <v>2</v>
       </c>
       <c r="F155" t="n">
-        <v>187</v>
+        <v>424</v>
       </c>
       <c r="G155" t="n">
-        <v>20524</v>
+        <v>19667</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>ג'דיידה-מכר</t>
+          <t>ערערה</t>
         </is>
       </c>
     </row>
@@ -4723,26 +4723,26 @@
         <v>156</v>
       </c>
       <c r="B156" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C156" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D156" t="n">
         <v>1</v>
       </c>
       <c r="E156" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F156" t="n">
-        <v>54</v>
+        <v>380</v>
       </c>
       <c r="G156" t="n">
-        <v>11089</v>
+        <v>40666</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>מג'דל שמס</t>
+          <t>שפרעם</t>
         </is>
       </c>
     </row>
@@ -4751,10 +4751,10 @@
         <v>157</v>
       </c>
       <c r="B157" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C157" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>
@@ -4763,14 +4763,14 @@
         <v>2</v>
       </c>
       <c r="F157" t="n">
-        <v>267</v>
+        <v>187</v>
       </c>
       <c r="G157" t="n">
-        <v>22449</v>
+        <v>20524</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>כפר כנא</t>
+          <t>ג'דיידה-מכר</t>
         </is>
       </c>
     </row>
@@ -4779,26 +4779,26 @@
         <v>158</v>
       </c>
       <c r="B158" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E158" t="n">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="G158" t="n">
-        <v>16644</v>
+        <v>11089</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>מסעודין אל-  עזאזמה</t>
+          <t>מג'דל שמס</t>
         </is>
       </c>
     </row>
@@ -4807,26 +4807,26 @@
         <v>159</v>
       </c>
       <c r="B159" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C159" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F159" t="n">
-        <v>71</v>
+        <v>267</v>
       </c>
       <c r="G159" t="n">
-        <v>17465</v>
+        <v>22449</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>ערערה-בנגב</t>
+          <t>כפר כנא</t>
         </is>
       </c>
     </row>
@@ -4835,10 +4835,10 @@
         <v>160</v>
       </c>
       <c r="B160" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C160" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -4847,14 +4847,14 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="G160" t="n">
-        <v>19850</v>
+        <v>16644</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>תל שבע</t>
+          <t>מסעודין אל-  עזאזמה</t>
         </is>
       </c>
     </row>
@@ -4863,26 +4863,26 @@
         <v>161</v>
       </c>
       <c r="B161" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C161" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E161" t="n">
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>224</v>
+        <v>71</v>
       </c>
       <c r="G161" t="n">
-        <v>22740</v>
+        <v>17465</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>קלנסווה</t>
+          <t>ערערה-בנגב</t>
         </is>
       </c>
     </row>
@@ -4891,10 +4891,10 @@
         <v>162</v>
       </c>
       <c r="B162" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C162" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
@@ -4903,14 +4903,14 @@
         <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>331</v>
+        <v>47</v>
       </c>
       <c r="G162" t="n">
-        <v>25876</v>
+        <v>19850</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>עראבה</t>
+          <t>תל שבע</t>
         </is>
       </c>
     </row>
@@ -4919,26 +4919,26 @@
         <v>163</v>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C163" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>90</v>
+        <v>224</v>
       </c>
       <c r="G163" t="n">
-        <v>13164</v>
+        <v>22740</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>אבו סנאן</t>
+          <t>קלנסווה</t>
         </is>
       </c>
     </row>
@@ -4947,26 +4947,26 @@
         <v>164</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>7</v>
+        <v>331</v>
       </c>
       <c r="G164" t="n">
-        <v>6235</v>
+        <v>25876</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>אבו קורינאת  (שבט)</t>
+          <t>עראבה</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -4987,14 +4987,14 @@
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="G165" t="n">
-        <v>9696</v>
+        <v>13164</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>אבו רוקייק  (שבט)</t>
+          <t>אבו סנאן</t>
         </is>
       </c>
     </row>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
@@ -5015,14 +5015,14 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="G166" t="n">
-        <v>13062</v>
+        <v>6235</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>אעבלין</t>
+          <t>אבו קורינאת  (שבט)</t>
         </is>
       </c>
     </row>
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -5043,14 +5043,14 @@
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G167" t="n">
-        <v>10149</v>
+        <v>9696</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>אעצם (שבט)</t>
+          <t>אבו רוקייק  (שבט)</t>
         </is>
       </c>
     </row>
@@ -5062,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -5071,14 +5071,14 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="G168" t="n">
-        <v>11757</v>
+        <v>13062</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>בית ג'ן</t>
+          <t>אעבלין</t>
         </is>
       </c>
     </row>
@@ -5090,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -5099,14 +5099,14 @@
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>193</v>
+        <v>17</v>
       </c>
       <c r="G169" t="n">
-        <v>19058</v>
+        <v>10149</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>בית שאן</t>
+          <t>אעצם (שבט)</t>
         </is>
       </c>
     </row>
@@ -5118,7 +5118,7 @@
         <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D170" t="n">
         <v>0</v>
@@ -5127,14 +5127,14 @@
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>164</v>
+        <v>72</v>
       </c>
       <c r="G170" t="n">
-        <v>16993</v>
+        <v>11757</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>דאלית אל-  כרמל</t>
+          <t>בית ג'ן</t>
         </is>
       </c>
     </row>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D171" t="n">
         <v>0</v>
@@ -5155,14 +5155,14 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="G171" t="n">
-        <v>8385</v>
+        <v>19058</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>זרזיר</t>
+          <t>בית שאן</t>
         </is>
       </c>
     </row>
@@ -5174,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D172" t="n">
         <v>0</v>
@@ -5183,14 +5183,14 @@
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>55</v>
+        <v>164</v>
       </c>
       <c r="G172" t="n">
-        <v>16983</v>
+        <v>16993</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>חורה</t>
+          <t>דאלית אל-  כרמל</t>
         </is>
       </c>
     </row>
@@ -5211,14 +5211,14 @@
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="G173" t="n">
-        <v>14398</v>
+        <v>8385</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>טורעאן</t>
+          <t>זרזיר</t>
         </is>
       </c>
     </row>
@@ -5230,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D174" t="n">
         <v>0</v>
@@ -5239,14 +5239,14 @@
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G174" t="n">
-        <v>6514</v>
+        <v>16983</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>יאנוח-ג'ת</t>
+          <t>חורה</t>
         </is>
       </c>
     </row>
@@ -5258,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D175" t="n">
         <v>0</v>
@@ -5267,14 +5267,14 @@
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="G175" t="n">
-        <v>15418</v>
+        <v>14398</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>ירכא</t>
+          <t>טורעאן</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D176" t="n">
         <v>0</v>
@@ -5295,14 +5295,14 @@
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="G176" t="n">
-        <v>12102</v>
+        <v>6514</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>כאבול</t>
+          <t>יאנוח-ג'ת</t>
         </is>
       </c>
     </row>
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D177" t="n">
         <v>0</v>
@@ -5323,14 +5323,14 @@
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="G177" t="n">
-        <v>8550</v>
+        <v>15418</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>כסרא-סמיע</t>
+          <t>ירכא</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D178" t="n">
         <v>0</v>
@@ -5351,14 +5351,14 @@
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="G178" t="n">
-        <v>5780</v>
+        <v>12102</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>כעביה-טבאש-  חג'אג'רה</t>
+          <t>כאבול</t>
         </is>
       </c>
     </row>
@@ -5370,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D179" t="n">
         <v>0</v>
@@ -5379,14 +5379,14 @@
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="G179" t="n">
-        <v>20003</v>
+        <v>8550</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>כפר מנדא</t>
+          <t>כסרא-סמיע</t>
         </is>
       </c>
     </row>
@@ -5398,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D180" t="n">
         <v>0</v>
@@ -5407,14 +5407,14 @@
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="G180" t="n">
-        <v>14695</v>
+        <v>5780</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>לקיה</t>
+          <t>כעביה-טבאש-  חג'אג'רה</t>
         </is>
       </c>
     </row>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D181" t="n">
         <v>0</v>
@@ -5435,14 +5435,14 @@
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="G181" t="n">
-        <v>15275</v>
+        <v>20003</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>מג'ד אל-כרום</t>
+          <t>כפר מנדא</t>
         </is>
       </c>
     </row>
@@ -5454,7 +5454,7 @@
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D182" t="n">
         <v>0</v>
@@ -5463,14 +5463,14 @@
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="G182" t="n">
-        <v>8649</v>
+        <v>14695</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>משהד</t>
+          <t>לקיה</t>
         </is>
       </c>
     </row>
@@ -5482,7 +5482,7 @@
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D183" t="n">
         <v>0</v>
@@ -5491,14 +5491,14 @@
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>30</v>
+        <v>198</v>
       </c>
       <c r="G183" t="n">
-        <v>8241</v>
+        <v>15275</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>עילוט</t>
+          <t>מג'ד אל-כרום</t>
         </is>
       </c>
     </row>
@@ -5510,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D184" t="n">
         <v>0</v>
@@ -5519,14 +5519,14 @@
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G184" t="n">
-        <v>8243</v>
+        <v>8649</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>ראמה</t>
+          <t>משהד</t>
         </is>
       </c>
     </row>
@@ -5538,21 +5538,77 @@
         <v>0</v>
       </c>
       <c r="C185" t="n">
+        <v>3</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+      <c r="F185" t="n">
+        <v>30</v>
+      </c>
+      <c r="G185" t="n">
+        <v>8241</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>עילוט</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0</v>
+      </c>
+      <c r="C186" t="n">
+        <v>4</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F186" t="n">
+        <v>68</v>
+      </c>
+      <c r="G186" t="n">
+        <v>8243</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>ראמה</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0</v>
+      </c>
+      <c r="C187" t="n">
         <v>7</v>
       </c>
-      <c r="D185" t="n">
-        <v>0</v>
-      </c>
-      <c r="E185" t="n">
-        <v>0</v>
-      </c>
-      <c r="F185" t="n">
+      <c r="D187" t="n">
+        <v>0</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0</v>
+      </c>
+      <c r="F187" t="n">
         <v>122</v>
       </c>
-      <c r="G185" t="n">
+      <c r="G187" t="n">
         <v>16614</v>
       </c>
-      <c r="H185" t="inlineStr">
+      <c r="H187" t="inlineStr">
         <is>
           <t>ריינה</t>
         </is>
